--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.5002081284317</v>
+        <v>12.80525333333333</v>
       </c>
       <c r="H2">
-        <v>12.5002081284317</v>
+        <v>38.41576000000001</v>
       </c>
       <c r="I2">
-        <v>0.5858595969834001</v>
+        <v>0.5783465436321655</v>
       </c>
       <c r="J2">
-        <v>0.5858595969834001</v>
+        <v>0.5783465436321654</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.70725526385441</v>
+        <v>64.74848166666668</v>
       </c>
       <c r="N2">
-        <v>64.70725526385441</v>
+        <v>194.245445</v>
       </c>
       <c r="O2">
-        <v>0.9531014902815595</v>
+        <v>0.9402357523751964</v>
       </c>
       <c r="P2">
-        <v>0.9531014902815595</v>
+        <v>0.9402357523751964</v>
       </c>
       <c r="Q2">
-        <v>808.8541582177378</v>
+        <v>829.1207106903557</v>
       </c>
       <c r="R2">
-        <v>808.8541582177378</v>
+        <v>7462.086396213202</v>
       </c>
       <c r="S2">
-        <v>0.5583836549806325</v>
+        <v>0.5437820975855835</v>
       </c>
       <c r="T2">
-        <v>0.5583836549806325</v>
+        <v>0.5437820975855834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,57 +596,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.5002081284317</v>
+        <v>12.80525333333333</v>
       </c>
       <c r="H3">
-        <v>12.5002081284317</v>
+        <v>38.41576000000001</v>
       </c>
       <c r="I3">
-        <v>0.5858595969834001</v>
+        <v>0.5783465436321655</v>
       </c>
       <c r="J3">
-        <v>0.5858595969834001</v>
+        <v>0.5783465436321654</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.18399863056452</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N3">
-        <v>3.18399863056452</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O3">
-        <v>0.04689850971844054</v>
+        <v>0.04731972144341096</v>
       </c>
       <c r="P3">
-        <v>0.04689850971844054</v>
+        <v>0.04731972144341097</v>
       </c>
       <c r="Q3">
-        <v>39.80064556269802</v>
+        <v>41.72757840118222</v>
       </c>
       <c r="R3">
-        <v>39.80064556269802</v>
+        <v>375.54820561064</v>
       </c>
       <c r="S3">
-        <v>0.02747594200276765</v>
+        <v>0.0273671973424336</v>
       </c>
       <c r="T3">
-        <v>0.02747594200276765</v>
+        <v>0.02736719734243359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02405139006696</v>
+        <v>12.80525333333333</v>
       </c>
       <c r="H4">
-        <v>1.02405139006696</v>
+        <v>38.41576000000001</v>
       </c>
       <c r="I4">
-        <v>0.04799522764027696</v>
+        <v>0.5783465436321655</v>
       </c>
       <c r="J4">
-        <v>0.04799522764027696</v>
+        <v>0.5783465436321654</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>64.70725526385441</v>
+        <v>0.023043</v>
       </c>
       <c r="N4">
-        <v>64.70725526385441</v>
+        <v>0.069129</v>
       </c>
       <c r="O4">
-        <v>0.9531014902815595</v>
+        <v>0.0003346156061777662</v>
       </c>
       <c r="P4">
-        <v>0.9531014902815595</v>
+        <v>0.0003346156061777662</v>
       </c>
       <c r="Q4">
-        <v>66.26355470036772</v>
+        <v>0.29507145256</v>
       </c>
       <c r="R4">
-        <v>66.26355470036772</v>
+        <v>2.65564307304</v>
       </c>
       <c r="S4">
-        <v>0.04574432299035067</v>
+        <v>0.000193523779278293</v>
       </c>
       <c r="T4">
-        <v>0.04574432299035067</v>
+        <v>0.0001935237792782929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02405139006696</v>
+        <v>12.80525333333333</v>
       </c>
       <c r="H5">
-        <v>1.02405139006696</v>
+        <v>38.41576000000001</v>
       </c>
       <c r="I5">
-        <v>0.04799522764027696</v>
+        <v>0.5783465436321655</v>
       </c>
       <c r="J5">
-        <v>0.04799522764027696</v>
+        <v>0.5783465436321654</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.18399863056452</v>
+        <v>0.04108233333333333</v>
       </c>
       <c r="N5">
-        <v>3.18399863056452</v>
+        <v>0.123247</v>
       </c>
       <c r="O5">
-        <v>0.04689850971844054</v>
+        <v>0.0005965711874118119</v>
       </c>
       <c r="P5">
-        <v>0.04689850971844054</v>
+        <v>0.000596571187411812</v>
       </c>
       <c r="Q5">
-        <v>3.260578223600894</v>
+        <v>0.5260696858577778</v>
       </c>
       <c r="R5">
-        <v>3.260578223600894</v>
+        <v>4.734627172720001</v>
       </c>
       <c r="S5">
-        <v>0.002250904649926295</v>
+        <v>0.0003450248842701583</v>
       </c>
       <c r="T5">
-        <v>0.002250904649926295</v>
+        <v>0.0003450248842701583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.04740270556378</v>
+        <v>12.80525333333333</v>
       </c>
       <c r="H6">
-        <v>4.04740270556378</v>
+        <v>38.41576000000001</v>
       </c>
       <c r="I6">
-        <v>0.1896936189820558</v>
+        <v>0.5783465436321655</v>
       </c>
       <c r="J6">
-        <v>0.1896936189820558</v>
+        <v>0.5783465436321654</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>64.70725526385441</v>
+        <v>0.7928556666666666</v>
       </c>
       <c r="N6">
-        <v>64.70725526385441</v>
+        <v>2.378567</v>
       </c>
       <c r="O6">
-        <v>0.9531014902815595</v>
+        <v>0.01151333938780296</v>
       </c>
       <c r="P6">
-        <v>0.9531014902815595</v>
+        <v>0.01151333938780296</v>
       </c>
       <c r="Q6">
-        <v>261.8963200245304</v>
+        <v>10.15271766843556</v>
       </c>
       <c r="R6">
-        <v>261.8963200245304</v>
+        <v>91.37445901592001</v>
       </c>
       <c r="S6">
-        <v>0.1807972709486997</v>
+        <v>0.006658700040599914</v>
       </c>
       <c r="T6">
-        <v>0.1807972709486997</v>
+        <v>0.006658700040599914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.04740270556378</v>
+        <v>1.142193666666667</v>
       </c>
       <c r="H7">
-        <v>4.04740270556378</v>
+        <v>3.426581</v>
       </c>
       <c r="I7">
-        <v>0.1896936189820558</v>
+        <v>0.05158693405585751</v>
       </c>
       <c r="J7">
-        <v>0.1896936189820558</v>
+        <v>0.0515869340558575</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.18399863056452</v>
+        <v>64.74848166666668</v>
       </c>
       <c r="N7">
-        <v>3.18399863056452</v>
+        <v>194.245445</v>
       </c>
       <c r="O7">
-        <v>0.04689850971844054</v>
+        <v>0.9402357523751964</v>
       </c>
       <c r="P7">
-        <v>0.04689850971844054</v>
+        <v>0.9402357523751964</v>
       </c>
       <c r="Q7">
-        <v>12.88692467185821</v>
+        <v>73.95530568594945</v>
       </c>
       <c r="R7">
-        <v>12.88692467185821</v>
+        <v>665.597751173545</v>
       </c>
       <c r="S7">
-        <v>0.008896348033356099</v>
+        <v>0.04850387975473883</v>
       </c>
       <c r="T7">
-        <v>0.008896348033356099</v>
+        <v>0.04850387975473882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.05104722626223</v>
+        <v>1.142193666666667</v>
       </c>
       <c r="H8">
-        <v>2.05104722626223</v>
+        <v>3.426581</v>
       </c>
       <c r="I8">
-        <v>0.0961284555445773</v>
+        <v>0.05158693405585751</v>
       </c>
       <c r="J8">
-        <v>0.0961284555445773</v>
+        <v>0.0515869340558575</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.70725526385441</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N8">
-        <v>64.70725526385441</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O8">
-        <v>0.9531014902815595</v>
+        <v>0.04731972144341096</v>
       </c>
       <c r="P8">
-        <v>0.9531014902815595</v>
+        <v>0.04731972144341097</v>
       </c>
       <c r="Q8">
-        <v>132.7176364279707</v>
+        <v>3.721986167278777</v>
       </c>
       <c r="R8">
-        <v>132.7176364279707</v>
+        <v>33.49787550550899</v>
       </c>
       <c r="S8">
-        <v>0.09162017423800127</v>
+        <v>0.002441079349642788</v>
       </c>
       <c r="T8">
-        <v>0.09162017423800127</v>
+        <v>0.002441079349642788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.05104722626223</v>
+        <v>1.142193666666667</v>
       </c>
       <c r="H9">
-        <v>2.05104722626223</v>
+        <v>3.426581</v>
       </c>
       <c r="I9">
-        <v>0.0961284555445773</v>
+        <v>0.05158693405585751</v>
       </c>
       <c r="J9">
-        <v>0.0961284555445773</v>
+        <v>0.0515869340558575</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.18399863056452</v>
+        <v>0.023043</v>
       </c>
       <c r="N9">
-        <v>3.18399863056452</v>
+        <v>0.069129</v>
       </c>
       <c r="O9">
-        <v>0.04689850971844054</v>
+        <v>0.0003346156061777662</v>
       </c>
       <c r="P9">
-        <v>0.04689850971844054</v>
+        <v>0.0003346156061777662</v>
       </c>
       <c r="Q9">
-        <v>6.530531559642097</v>
+        <v>0.026319568661</v>
       </c>
       <c r="R9">
-        <v>6.530531559642097</v>
+        <v>0.236876117949</v>
       </c>
       <c r="S9">
-        <v>0.004508281306576038</v>
+        <v>1.726179320995321E-05</v>
       </c>
       <c r="T9">
-        <v>0.004508281306576038</v>
+        <v>1.726179320995321E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.71381587553064</v>
+        <v>1.142193666666667</v>
       </c>
       <c r="H10">
-        <v>1.71381587553064</v>
+        <v>3.426581</v>
       </c>
       <c r="I10">
-        <v>0.08032310084968997</v>
+        <v>0.05158693405585751</v>
       </c>
       <c r="J10">
-        <v>0.08032310084968997</v>
+        <v>0.0515869340558575</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>64.70725526385441</v>
+        <v>0.04108233333333333</v>
       </c>
       <c r="N10">
-        <v>64.70725526385441</v>
+        <v>0.123247</v>
       </c>
       <c r="O10">
-        <v>0.9531014902815595</v>
+        <v>0.0005965711874118119</v>
       </c>
       <c r="P10">
-        <v>0.9531014902815595</v>
+        <v>0.000596571187411812</v>
       </c>
       <c r="Q10">
-        <v>110.8963213332073</v>
+        <v>0.04692398094522222</v>
       </c>
       <c r="R10">
-        <v>110.8963213332073</v>
+        <v>0.4223158285069999</v>
       </c>
       <c r="S10">
-        <v>0.07655606712387551</v>
+        <v>3.077527850463776E-05</v>
       </c>
       <c r="T10">
-        <v>0.07655606712387551</v>
+        <v>3.077527850463775E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.142193666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.426581</v>
+      </c>
+      <c r="I11">
+        <v>0.05158693405585751</v>
+      </c>
+      <c r="J11">
+        <v>0.0515869340558575</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.378567</v>
+      </c>
+      <c r="O11">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P11">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q11">
+        <v>0.9055947210474443</v>
+      </c>
+      <c r="R11">
+        <v>8.150352489426998</v>
+      </c>
+      <c r="S11">
+        <v>0.0005939378797612982</v>
+      </c>
+      <c r="T11">
+        <v>0.0005939378797612981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.048356666666667</v>
+      </c>
+      <c r="H12">
+        <v>12.14507</v>
+      </c>
+      <c r="I12">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="J12">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>64.74848166666668</v>
+      </c>
+      <c r="N12">
+        <v>194.245445</v>
+      </c>
+      <c r="O12">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="P12">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="Q12">
+        <v>262.1249474117945</v>
+      </c>
+      <c r="R12">
+        <v>2359.12452670615</v>
+      </c>
+      <c r="S12">
+        <v>0.1719156835612192</v>
+      </c>
+      <c r="T12">
+        <v>0.1719156835612192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.71381587553064</v>
-      </c>
-      <c r="H11">
-        <v>1.71381587553064</v>
-      </c>
-      <c r="I11">
-        <v>0.08032310084968997</v>
-      </c>
-      <c r="J11">
-        <v>0.08032310084968997</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.18399863056452</v>
-      </c>
-      <c r="N11">
-        <v>3.18399863056452</v>
-      </c>
-      <c r="O11">
-        <v>0.04689850971844054</v>
-      </c>
-      <c r="P11">
-        <v>0.04689850971844054</v>
-      </c>
-      <c r="Q11">
-        <v>5.456787400729292</v>
-      </c>
-      <c r="R11">
-        <v>5.456787400729292</v>
-      </c>
-      <c r="S11">
-        <v>0.003767033725814464</v>
-      </c>
-      <c r="T11">
-        <v>0.003767033725814464</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.048356666666667</v>
+      </c>
+      <c r="H13">
+        <v>12.14507</v>
+      </c>
+      <c r="I13">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="J13">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.258629666666666</v>
+      </c>
+      <c r="N13">
+        <v>9.775888999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.04731972144341096</v>
+      </c>
+      <c r="P13">
+        <v>0.04731972144341097</v>
+      </c>
+      <c r="Q13">
+        <v>13.19209513524778</v>
+      </c>
+      <c r="R13">
+        <v>118.72885621723</v>
+      </c>
+      <c r="S13">
+        <v>0.008652087774071631</v>
+      </c>
+      <c r="T13">
+        <v>0.008652087774071631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.048356666666667</v>
+      </c>
+      <c r="H14">
+        <v>12.14507</v>
+      </c>
+      <c r="I14">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="J14">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.023043</v>
+      </c>
+      <c r="N14">
+        <v>0.069129</v>
+      </c>
+      <c r="O14">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P14">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q14">
+        <v>0.09328628267</v>
+      </c>
+      <c r="R14">
+        <v>0.83957654403</v>
+      </c>
+      <c r="S14">
+        <v>6.118217747089781E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.118217747089781E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.048356666666667</v>
+      </c>
+      <c r="H15">
+        <v>12.14507</v>
+      </c>
+      <c r="I15">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="J15">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.123247</v>
+      </c>
+      <c r="O15">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P15">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q15">
+        <v>0.1663159380322222</v>
+      </c>
+      <c r="R15">
+        <v>1.49684344229</v>
+      </c>
+      <c r="S15">
+        <v>0.0001090789657995305</v>
+      </c>
+      <c r="T15">
+        <v>0.0001090789657995305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.048356666666667</v>
+      </c>
+      <c r="H16">
+        <v>12.14507</v>
+      </c>
+      <c r="I16">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="J16">
+        <v>0.1828431679256301</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.378567</v>
+      </c>
+      <c r="O16">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P16">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q16">
+        <v>3.209762523854444</v>
+      </c>
+      <c r="R16">
+        <v>28.88786271469</v>
+      </c>
+      <c r="S16">
+        <v>0.002105135447068828</v>
+      </c>
+      <c r="T16">
+        <v>0.002105135447068828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.235963</v>
+      </c>
+      <c r="H17">
+        <v>6.707889</v>
+      </c>
+      <c r="I17">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="J17">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>64.74848166666668</v>
+      </c>
+      <c r="N17">
+        <v>194.245445</v>
+      </c>
+      <c r="O17">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="P17">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="Q17">
+        <v>144.775209312845</v>
+      </c>
+      <c r="R17">
+        <v>1302.976883815605</v>
+      </c>
+      <c r="S17">
+        <v>0.09495139366737144</v>
+      </c>
+      <c r="T17">
+        <v>0.09495139366737143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.235963</v>
+      </c>
+      <c r="H18">
+        <v>6.707889</v>
+      </c>
+      <c r="I18">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="J18">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.258629666666666</v>
+      </c>
+      <c r="N18">
+        <v>9.775888999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.04731972144341096</v>
+      </c>
+      <c r="P18">
+        <v>0.04731972144341097</v>
+      </c>
+      <c r="Q18">
+        <v>7.286175365368999</v>
+      </c>
+      <c r="R18">
+        <v>65.575578288321</v>
+      </c>
+      <c r="S18">
+        <v>0.00477866693289784</v>
+      </c>
+      <c r="T18">
+        <v>0.00477866693289784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.235963</v>
+      </c>
+      <c r="H19">
+        <v>6.707889</v>
+      </c>
+      <c r="I19">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="J19">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.023043</v>
+      </c>
+      <c r="N19">
+        <v>0.069129</v>
+      </c>
+      <c r="O19">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P19">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q19">
+        <v>0.05152329540899999</v>
+      </c>
+      <c r="R19">
+        <v>0.4637096586809999</v>
+      </c>
+      <c r="S19">
+        <v>3.379175708769758E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.379175708769758E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.235963</v>
+      </c>
+      <c r="H20">
+        <v>6.707889</v>
+      </c>
+      <c r="I20">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="J20">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.123247</v>
+      </c>
+      <c r="O20">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P20">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q20">
+        <v>0.09185857728699999</v>
+      </c>
+      <c r="R20">
+        <v>0.8267271955829999</v>
+      </c>
+      <c r="S20">
+        <v>6.024581124835399E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.024581124835399E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.235963</v>
+      </c>
+      <c r="H21">
+        <v>6.707889</v>
+      </c>
+      <c r="I21">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="J21">
+        <v>0.1009867933946438</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N21">
+        <v>2.378567</v>
+      </c>
+      <c r="O21">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P21">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q21">
+        <v>1.772795935007</v>
+      </c>
+      <c r="R21">
+        <v>15.955163415063</v>
+      </c>
+      <c r="S21">
+        <v>0.001162695226038472</v>
+      </c>
+      <c r="T21">
+        <v>0.001162695226038472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.909376</v>
+      </c>
+      <c r="H22">
+        <v>5.728128</v>
+      </c>
+      <c r="I22">
+        <v>0.0862365609917031</v>
+      </c>
+      <c r="J22">
+        <v>0.08623656099170308</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>64.74848166666668</v>
+      </c>
+      <c r="N22">
+        <v>194.245445</v>
+      </c>
+      <c r="O22">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="P22">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="Q22">
+        <v>123.6291969307733</v>
+      </c>
+      <c r="R22">
+        <v>1112.66277237696</v>
+      </c>
+      <c r="S22">
+        <v>0.08108269780628348</v>
+      </c>
+      <c r="T22">
+        <v>0.08108269780628347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.909376</v>
+      </c>
+      <c r="H23">
+        <v>5.728128</v>
+      </c>
+      <c r="I23">
+        <v>0.0862365609917031</v>
+      </c>
+      <c r="J23">
+        <v>0.08623656099170308</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.258629666666666</v>
+      </c>
+      <c r="N23">
+        <v>9.775888999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.04731972144341096</v>
+      </c>
+      <c r="P23">
+        <v>0.04731972144341097</v>
+      </c>
+      <c r="Q23">
+        <v>6.221949278421333</v>
+      </c>
+      <c r="R23">
+        <v>55.997543505792</v>
+      </c>
+      <c r="S23">
+        <v>0.00408069004436511</v>
+      </c>
+      <c r="T23">
+        <v>0.00408069004436511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.909376</v>
+      </c>
+      <c r="H24">
+        <v>5.728128</v>
+      </c>
+      <c r="I24">
+        <v>0.0862365609917031</v>
+      </c>
+      <c r="J24">
+        <v>0.08623656099170308</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.023043</v>
+      </c>
+      <c r="N24">
+        <v>0.069129</v>
+      </c>
+      <c r="O24">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P24">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q24">
+        <v>0.043997751168</v>
+      </c>
+      <c r="R24">
+        <v>0.395979760512</v>
+      </c>
+      <c r="S24">
+        <v>2.885609913092464E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.885609913092464E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.909376</v>
+      </c>
+      <c r="H25">
+        <v>5.728128</v>
+      </c>
+      <c r="I25">
+        <v>0.0862365609917031</v>
+      </c>
+      <c r="J25">
+        <v>0.08623656099170308</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.123247</v>
+      </c>
+      <c r="O25">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P25">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q25">
+        <v>0.07844162129066666</v>
+      </c>
+      <c r="R25">
+        <v>0.705974591616</v>
+      </c>
+      <c r="S25">
+        <v>5.144624758913146E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.144624758913146E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.909376</v>
+      </c>
+      <c r="H26">
+        <v>5.728128</v>
+      </c>
+      <c r="I26">
+        <v>0.0862365609917031</v>
+      </c>
+      <c r="J26">
+        <v>0.08623656099170308</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N26">
+        <v>2.378567</v>
+      </c>
+      <c r="O26">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P26">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q26">
+        <v>1.513859581397333</v>
+      </c>
+      <c r="R26">
+        <v>13.624736232576</v>
+      </c>
+      <c r="S26">
+        <v>0.0009928707943344475</v>
+      </c>
+      <c r="T26">
+        <v>0.0009928707943344475</v>
       </c>
     </row>
   </sheetData>
